--- a/biology/Botanique/Pinus_canariensis/Pinus_canariensis.xlsx
+++ b/biology/Botanique/Pinus_canariensis/Pinus_canariensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pinus canariensis ou pin des Canaries est un conifère de la famille des Pinacées. Il est le symbole de La Palma[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pinus canariensis ou pin des Canaries est un conifère de la famille des Pinacées. Il est le symbole de La Palma.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre au tronc généralement droit d'une hauteur de 15 à 30 m, mais certains exemplaires anciens dans les environs de Vilaflor sur l'île de Tenerife ont un tronc de 2,5 m de diamètre et atteignent une hauteur de 60 m.
 Les aiguilles sont fines et souples et groupées par trois. Elles mesurent de 20 à 30 cm de long.
@@ -546,7 +560,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">organes reproducteurs:
 Type d'"inflorescence": cône
@@ -591,7 +607,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre est commun dans les îles Canaries (Espagne). On le trouve aussi en Italie où il est cultivé pour son bois.
 </t>
